--- a/medicine/Enfance/Liste_des_romans_de_la_série_Michel/Liste_des_romans_de_la_série_Michel.xlsx
+++ b/medicine/Enfance/Liste_des_romans_de_la_série_Michel/Liste_des_romans_de_la_série_Michel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_s%C3%A9rie_Michel</t>
+          <t>Liste_des_romans_de_la_série_Michel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente les romans de la série pour la jeunesse Michel, créée par Georges Bayard.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_s%C3%A9rie_Michel</t>
+          <t>Liste_des_romans_de_la_série_Michel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parutions dans la Bibliothèque verte
-Michel mène l'enquête (1958)
+          <t>Parutions dans la Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Michel mène l'enquête (1958)
 Michel et la Falaise mystérieuse (1958)
 Les Étranges Vacances de Michel (1959)
 Michel fait mouche (1959)
@@ -552,12 +569,80 @@
 Michel fait de la planche à voile (1982)
 Michel aux Antilles (1983)
 Michel et les Casseurs (1984)
-Michel fait surface (1985)
-Parutions dans l'Idéal-Bibliothèque
-1965 : Michel mène l'enquête (no 287)
-1966 : Michel fait du cinéma (no 312)
-Parutions dans La Galaxie et Les Grands Livres Hachette
-1966 : Michel et la Falaise mystérieuse, Les Étranges Vacances de Michel, Michel fait mouche (Les Grands Livres Hachette 3 livres en 1)
+Michel fait surface (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_série_Michel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_s%C3%A9rie_Michel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parutions dans l'Idéal-Bibliothèque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1965 : Michel mène l'enquête (no 287)
+1966 : Michel fait du cinéma (no 312)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_série_Michel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_s%C3%A9rie_Michel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des romans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parutions dans La Galaxie et Les Grands Livres Hachette</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1966 : Michel et la Falaise mystérieuse, Les Étranges Vacances de Michel, Michel fait mouche (Les Grands Livres Hachette 3 livres en 1)
 1973 : Michel en plongée (La Galaxie)
 1974 : Les Étranges Vacances de Michel (La Galaxie)
 1974 : Michel mousquetaire (La Galaxie)
